--- a/docs/base/StructureDefinition-lt-related-person.xlsx
+++ b/docs/base/StructureDefinition-lt-related-person.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T15:58:38+02:00</t>
+    <t>2025-10-30T19:04:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -544,7 +544,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.2.0)
 </t>
   </si>
   <si>
